--- a/result/2_pred.xlsx
+++ b/result/2_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,890 +647,610 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>907.1164793098076</v>
+        <v>903.5778354785757</v>
       </c>
       <c r="B27" t="n">
-        <v>19647.68470919135</v>
+        <v>19648.37608451322</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>939.4206235259583</v>
+        <v>925.7292486553649</v>
       </c>
       <c r="B28" t="n">
-        <v>19661.15475991368</v>
+        <v>19657.61269072281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>925.5759902904651</v>
+        <v>942.3428085379567</v>
       </c>
       <c r="B29" t="n">
-        <v>19655.38188103268</v>
+        <v>19664.54014538001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>916.3462348001362</v>
+        <v>914.6535420669703</v>
       </c>
       <c r="B30" t="n">
-        <v>19651.53329511201</v>
+        <v>19652.99438761802</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>948.650379016287</v>
+        <v>893.4216790795797</v>
       </c>
       <c r="B31" t="n">
-        <v>19665.00334583435</v>
+        <v>19657.14263954921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>897.8867238194787</v>
+        <v>892.5021288901812</v>
       </c>
       <c r="B32" t="n">
-        <v>19643.83612327068</v>
+        <v>19643.75778140842</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>898.6530156439775</v>
+        <v>904.4973856679743</v>
       </c>
       <c r="B33" t="n">
-        <v>19654.99017172134</v>
+        <v>19661.76094265401</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>907.8827711343063</v>
+        <v>921.1109455505662</v>
       </c>
       <c r="B34" t="n">
-        <v>19658.83875764201</v>
+        <v>19668.68839731121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>935.5720376052927</v>
+        <v>932.1866521389607</v>
       </c>
       <c r="B35" t="n">
-        <v>19670.38451540401</v>
+        <v>19673.30670041601</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>921.7274043697995</v>
+        <v>883.2655226805837</v>
       </c>
       <c r="B36" t="n">
-        <v>19664.61163652301</v>
+        <v>19665.90919458521</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>944.8017930956214</v>
+        <v>881.4264223017867</v>
       </c>
       <c r="B37" t="n">
-        <v>19674.23310132467</v>
+        <v>19639.13947830362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>888.65696832915</v>
+        <v>882.3459724911852</v>
       </c>
       <c r="B38" t="n">
-        <v>19639.98753735002</v>
+        <v>19652.52433644441</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>890.1895519781474</v>
+        <v>894.3412292689783</v>
       </c>
       <c r="B39" t="n">
-        <v>19662.29563425134</v>
+        <v>19670.52749769</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>889.4232601536487</v>
+        <v>873.1093662815878</v>
       </c>
       <c r="B40" t="n">
-        <v>19651.14158580068</v>
+        <v>19674.6757496212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>899.4193074684763</v>
+        <v>916.4926424457674</v>
       </c>
       <c r="B41" t="n">
-        <v>19666.14422017201</v>
+        <v>19679.7641038996</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>931.7234516846271</v>
+        <v>927.5683490341619</v>
       </c>
       <c r="B42" t="n">
-        <v>19679.61427089434</v>
+        <v>19684.3824070044</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>917.8788184491339</v>
+        <v>905.4169358573729</v>
       </c>
       <c r="B43" t="n">
-        <v>19673.84139201334</v>
+        <v>19675.1458007948</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>881.7260883123174</v>
+        <v>853.7166036729943</v>
       </c>
       <c r="B44" t="n">
-        <v>19669.60109678134</v>
+        <v>19705.59371783399</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>908.6490629588051</v>
+        <v>868.4910631767889</v>
       </c>
       <c r="B45" t="n">
-        <v>19669.99280609268</v>
+        <v>19685.7514562096</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>940.9532071749559</v>
+        <v>870.3507157133922</v>
       </c>
       <c r="B46" t="n">
-        <v>19683.462856815</v>
+        <v>19634.52117519882</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>879.4272128388211</v>
+        <v>858.334906777793</v>
       </c>
       <c r="B47" t="n">
-        <v>19636.13895142936</v>
+        <v>19694.51801124559</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>880.9597964878187</v>
+        <v>884.1850728699823</v>
       </c>
       <c r="B48" t="n">
-        <v>19658.44704833068</v>
+        <v>19679.294052726</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>873.2626246464874</v>
+        <v>872.1898160921892</v>
       </c>
       <c r="B49" t="n">
-        <v>19676.90655931133</v>
+        <v>19661.29089148041</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>880.19350466332</v>
+        <v>871.2702659027907</v>
       </c>
       <c r="B50" t="n">
-        <v>19647.29299988002</v>
+        <v>19647.90603333961</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>890.9558438026463</v>
+        <v>857.4153565883944</v>
       </c>
       <c r="B51" t="n">
-        <v>19673.449682702</v>
+        <v>19681.1331531048</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>857.1019891393262</v>
+        <v>859.2750091249976</v>
       </c>
       <c r="B52" t="n">
-        <v>19702.67153282199</v>
+        <v>19629.90287209402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>864.7991609806575</v>
+        <v>862.0336596931932</v>
       </c>
       <c r="B53" t="n">
-        <v>19684.21202184133</v>
+        <v>19670.0574465164</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>860.9505750599919</v>
+        <v>895.2607794583769</v>
       </c>
       <c r="B54" t="n">
-        <v>19693.44177733166</v>
+        <v>19683.9123558308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>872.4963328219887</v>
+        <v>842.6408970845997</v>
       </c>
       <c r="B55" t="n">
-        <v>19665.75251086067</v>
+        <v>19700.97541472919</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>870.1974573484924</v>
+        <v>869.4106133661875</v>
       </c>
       <c r="B56" t="n">
-        <v>19632.29036550869</v>
+        <v>19699.13631435039</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>900.1855992929751</v>
+        <v>864.7923102613888</v>
       </c>
       <c r="B57" t="n">
-        <v>19677.29826862267</v>
+        <v>19710.21202093879</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>927.8748657639615</v>
+        <v>837.1235959482085</v>
       </c>
       <c r="B58" t="n">
-        <v>19688.84402638466</v>
+        <v>19620.66626588443</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>914.0302325284683</v>
+        <v>911.8743393409686</v>
       </c>
       <c r="B59" t="n">
-        <v>19683.07114750367</v>
+        <v>19690.839810488</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>937.1046212542902</v>
+        <v>922.9500459293632</v>
       </c>
       <c r="B60" t="n">
-        <v>19692.69261230533</v>
+        <v>19695.45811359279</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>882.4923801368162</v>
+        <v>879.5667697651835</v>
       </c>
       <c r="B61" t="n">
-        <v>19680.755145232</v>
+        <v>19690.3697593144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>871.7300409974899</v>
+        <v>848.199302536603</v>
       </c>
       <c r="B62" t="n">
-        <v>19654.59846241001</v>
+        <v>19625.28456898922</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>870.9637491729911</v>
+        <v>847.2592001893985</v>
       </c>
       <c r="B63" t="n">
-        <v>19643.44441395935</v>
+        <v>19689.89970814079</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>845.9479406886646</v>
+        <v>861.1141095037947</v>
       </c>
       <c r="B64" t="n">
-        <v>19703.43782464649</v>
+        <v>19656.67258837561</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>874.0289164709862</v>
+        <v>860.1945593143962</v>
       </c>
       <c r="B65" t="n">
-        <v>19688.060607762</v>
+        <v>19643.28773023481</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>864.0328691561588</v>
+        <v>831.5651904962051</v>
       </c>
       <c r="B66" t="n">
-        <v>19673.05797339067</v>
+        <v>19696.35711162439</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>860.9677018581635</v>
+        <v>809.4137773194161</v>
       </c>
       <c r="B67" t="n">
-        <v>19628.44177958802</v>
+        <v>19687.12050541479</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>837.8933131323416</v>
+        <v>823.7387378074145</v>
       </c>
       <c r="B68" t="n">
-        <v>19618.82031478636</v>
+        <v>19621.58581607382</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>847.1230686226704</v>
+        <v>776.6567087278347</v>
       </c>
       <c r="B69" t="n">
-        <v>19622.66890070702</v>
+        <v>19640.95802652461</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>870.1803305503206</v>
+        <v>890.6424763535781</v>
       </c>
       <c r="B70" t="n">
-        <v>19697.29036325232</v>
+        <v>19694.98806241919</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>866.3317446296551</v>
+        <v>798.3380707310215</v>
       </c>
       <c r="B71" t="n">
-        <v>19706.52011874265</v>
+        <v>19682.50220231</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>891.722135627145</v>
+        <v>846.3396499999999</v>
       </c>
       <c r="B72" t="n">
-        <v>19684.60373115267</v>
+        <v>19676.51485</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>849.7965266093303</v>
+        <v>820.4894839078106</v>
       </c>
       <c r="B73" t="n">
-        <v>19694.20806915616</v>
+        <v>19691.73880851959</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>855.5694054903288</v>
+        <v>850.9579531047987</v>
       </c>
       <c r="B74" t="n">
-        <v>19680.36343592067</v>
+        <v>19665.4391434116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>863.26657733166</v>
+        <v>832.5052928434097</v>
       </c>
       <c r="B75" t="n">
-        <v>19661.90392494001</v>
+        <v>19631.74197247282</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>924.0262798432958</v>
+        <v>781.2750118326335</v>
       </c>
       <c r="B76" t="n">
-        <v>19698.07378187499</v>
+        <v>19629.88231993622</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>910.1816466078026</v>
+        <v>907.2560362361698</v>
       </c>
       <c r="B77" t="n">
-        <v>19692.300902994</v>
+        <v>19701.91551707639</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>861.7339936826623</v>
+        <v>880.4863199545821</v>
       </c>
       <c r="B78" t="n">
-        <v>19639.59582803868</v>
+        <v>19703.75461745519</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>900.9518911174739</v>
+        <v>875.8680168497833</v>
       </c>
       <c r="B79" t="n">
-        <v>19688.45231707333</v>
+        <v>19714.83032404359</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>836.718185198336</v>
+        <v>849.1188527260016</v>
       </c>
       <c r="B80" t="n">
-        <v>19699.58923872582</v>
+        <v>19638.66942713001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>933.2560353336246</v>
+        <v>918.3317428245645</v>
       </c>
       <c r="B81" t="n">
-        <v>19701.92236779566</v>
+        <v>19706.53382018119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>883.258671961315</v>
+        <v>804.3459751988211</v>
       </c>
       <c r="B82" t="n">
-        <v>19691.90919368266</v>
+        <v>19652.50378428661</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>862.5002855071612</v>
+        <v>872.1692639343831</v>
       </c>
       <c r="B83" t="n">
-        <v>19650.74987648935</v>
+        <v>19739.29088877277</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>854.8031136658299</v>
+        <v>772.5084567966383</v>
       </c>
       <c r="B84" t="n">
-        <v>19669.20938747</v>
+        <v>19619.72616353722</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>834.044727211676</v>
+        <v>787.7324153162292</v>
       </c>
       <c r="B85" t="n">
-        <v>19628.05007027669</v>
+        <v>19645.57632962941</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>828.6635576420128</v>
+        <v>763.2718505870408</v>
       </c>
       <c r="B86" t="n">
-        <v>19614.97172886569</v>
+        <v>19641.87757671401</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>852.5042381923336</v>
+        <v>813.5825814084185</v>
       </c>
       <c r="B87" t="n">
-        <v>19635.74724211802</v>
+        <v>19630.35237110982</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>813.6437964725139</v>
+        <v>820.9595350814129</v>
       </c>
       <c r="B88" t="n">
-        <v>19689.96777392416</v>
+        <v>19659.43123894381</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>827.4884297080071</v>
+        <v>836.1834936010039</v>
       </c>
       <c r="B89" t="n">
-        <v>19695.74065280516</v>
+        <v>19685.281405036</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>843.2744827020048</v>
+        <v>785.8933149374323</v>
       </c>
       <c r="B90" t="n">
-        <v>19631.89865619735</v>
+        <v>19618.80661334782</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>879.4100860406494</v>
+        <v>888.782823816975</v>
       </c>
       <c r="B91" t="n">
-        <v>19701.13894917299</v>
+        <v>19746.21834342997</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>840.5667711190015</v>
+        <v>850.0384029154002</v>
       </c>
       <c r="B92" t="n">
-        <v>19690.35948323549</v>
+        <v>19652.05428527081</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>824.8149717213472</v>
+        <v>787.262364142627</v>
       </c>
       <c r="B93" t="n">
-        <v>19624.20148435602</v>
+        <v>19677.88389920519</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>875.5615001199837</v>
+        <v>770.6488042600351</v>
       </c>
       <c r="B94" t="n">
-        <v>19710.36870466332</v>
+        <v>19670.956444548</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>846.3396499999999</v>
+        <v>876.7875670391818</v>
       </c>
       <c r="B95" t="n">
-        <v>19676.51485</v>
+        <v>19728.21518218438</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>779.0407767828667</v>
+        <v>797.4185205416229</v>
       </c>
       <c r="B96" t="n">
-        <v>19643.03557784984</v>
+        <v>19669.1173441692</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>780.1987779187009</v>
+        <v>759.5730976716407</v>
       </c>
       <c r="B97" t="n">
-        <v>19627.26665165402</v>
+        <v>19666.3381414432</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>892.4884274516438</v>
+        <v>777.5762589172333</v>
       </c>
       <c r="B98" t="n">
-        <v>19695.75777960333</v>
+        <v>19654.34288466541</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>854.0368218413312</v>
+        <v>814.0320804242149</v>
       </c>
       <c r="B99" t="n">
-        <v>19658.05533901935</v>
+        <v>19676.0447988264</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>920.1776939226302</v>
+        <v>905.3963836995667</v>
       </c>
       <c r="B100" t="n">
-        <v>19707.30353736533</v>
+        <v>19753.14579808717</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>906.333060687137</v>
+        <v>906.7859850625675</v>
       </c>
       <c r="B101" t="n">
-        <v>19701.53065848433</v>
+        <v>19734.22308665218</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>767.8867283322052</v>
+        <v>808.9642783036197</v>
       </c>
       <c r="B102" t="n">
-        <v>19643.80186967434</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>929.4074494129591</v>
-      </c>
-      <c r="B103" t="n">
-        <v>19711.15212328599</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>802.1151655086887</v>
-      </c>
-      <c r="B104" t="n">
-        <v>19652.65704265151</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>853.2705300168324</v>
-      </c>
-      <c r="B105" t="n">
-        <v>19646.90129056868</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>797.108578452189</v>
-      </c>
-      <c r="B106" t="n">
-        <v>19677.65572433766</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>788.6622415845309</v>
-      </c>
-      <c r="B107" t="n">
-        <v>19619.96118912402</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>806.3383339425179</v>
-      </c>
-      <c r="B108" t="n">
-        <v>19681.50431025833</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>873.2454978483157</v>
-      </c>
-      <c r="B109" t="n">
-        <v>19741.90655705497</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>763.6635598983761</v>
-      </c>
-      <c r="B110" t="n">
-        <v>19614.95460206752</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>772.8933153887049</v>
-      </c>
-      <c r="B111" t="n">
-        <v>19618.80318798819</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>822.4989694496792</v>
-      </c>
-      <c r="B112" t="n">
-        <v>19655.73933674767</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>900.9347643193022</v>
-      </c>
-      <c r="B113" t="n">
-        <v>19753.45231481697</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>830.1961412910105</v>
-      </c>
-      <c r="B114" t="n">
-        <v>19637.27982576701</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>887.090131083809</v>
-      </c>
-      <c r="B115" t="n">
-        <v>19747.67943593597</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>773.2850247000401</v>
-      </c>
-      <c r="B116" t="n">
-        <v>19591.8802133417</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>845.5733581755012</v>
-      </c>
-      <c r="B117" t="n">
-        <v>19665.36080154934</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>754.042095096712</v>
-      </c>
-      <c r="B118" t="n">
-        <v>19638.02899079334</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>815.5852162310184</v>
-      </c>
-      <c r="B119" t="n">
-        <v>19620.35289843535</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>805.9637514293544</v>
-      </c>
-      <c r="B120" t="n">
-        <v>19643.42728716118</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>817.4923823931795</v>
-      </c>
-      <c r="B121" t="n">
-        <v>19680.73801843383</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>788.2705322731956</v>
-      </c>
-      <c r="B122" t="n">
-        <v>19646.88416377051</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>831.3370156286727</v>
-      </c>
-      <c r="B123" t="n">
-        <v>19686.51089731483</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>809.81233735002</v>
-      </c>
-      <c r="B124" t="n">
-        <v>19634.19753167085</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>796.3422866276903</v>
-      </c>
-      <c r="B125" t="n">
-        <v>19666.501675887</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>910.164519809631</v>
-      </c>
-      <c r="B126" t="n">
-        <v>19757.30090073763</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>771.7353142528708</v>
-      </c>
-      <c r="B127" t="n">
-        <v>19634.57211418401</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>811.3449209990176</v>
-      </c>
-      <c r="B128" t="n">
-        <v>19656.50562857217</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>819.4338021516841</v>
-      </c>
-      <c r="B129" t="n">
-        <v>19611.12314294503</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>787.5042404486967</v>
-      </c>
-      <c r="B130" t="n">
-        <v>19635.73011531985</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>818.6503835290135</v>
-      </c>
-      <c r="B131" t="n">
-        <v>19664.969092238</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>775.1921908622012</v>
-      </c>
-      <c r="B132" t="n">
-        <v>19652.26533334017</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>888.6398415309782</v>
-      </c>
-      <c r="B133" t="n">
-        <v>19704.98753509366</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>901.3264736306373</v>
-      </c>
-      <c r="B134" t="n">
-        <v>19726.52934017048</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>774.0341897263671</v>
-      </c>
-      <c r="B135" t="n">
-        <v>19668.034259536</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>884.7912556103126</v>
-      </c>
-      <c r="B136" t="n">
-        <v>19714.21729058398</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>839.4258967813391</v>
-      </c>
-      <c r="B137" t="n">
-        <v>19641.12841168768</v>
+        <v>19641.42807769821</v>
       </c>
     </row>
   </sheetData>
